--- a/data/trans_orig/Q02D_R2-Clase-trans_orig.xlsx
+++ b/data/trans_orig/Q02D_R2-Clase-trans_orig.xlsx
@@ -760,7 +760,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>5125</v>
+        <v>5789</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.0108399685122647</v>
@@ -769,7 +769,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.04826716913150818</v>
+        <v>0.05452622435930497</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1</v>
@@ -781,7 +781,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>5107</v>
+        <v>5976</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.00515771931355621</v>
@@ -790,7 +790,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02288557683112222</v>
+        <v>0.02678189114094504</v>
       </c>
     </row>
     <row r="5">
@@ -807,19 +807,19 @@
         <v>3998</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>953</v>
+        <v>959</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>9196</v>
+        <v>9927</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.03418105848336524</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.008150646558141815</v>
+        <v>0.00819896979528033</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.07862019953600484</v>
+        <v>0.08487007600687228</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>13</v>
@@ -828,19 +828,19 @@
         <v>14027</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>8153</v>
+        <v>8114</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>22957</v>
+        <v>21645</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1321163238806307</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.07679317396072177</v>
+        <v>0.07642154815077247</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2162235547420325</v>
+        <v>0.2038694983414746</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>17</v>
@@ -849,19 +849,19 @@
         <v>18025</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>10561</v>
+        <v>10934</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>27600</v>
+        <v>27792</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.08077922057638395</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.04732837322493649</v>
+        <v>0.04899884175060945</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1236904379469908</v>
+        <v>0.1245477931522795</v>
       </c>
     </row>
     <row r="6">
@@ -878,19 +878,19 @@
         <v>112971</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>107773</v>
+        <v>107042</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>116016</v>
+        <v>116010</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.9658189415166347</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.9213798004639951</v>
+        <v>0.9151299239931278</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.9918493534418582</v>
+        <v>0.9918010302047197</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>88</v>
@@ -899,19 +899,19 @@
         <v>90994</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>82117</v>
+        <v>83180</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>97498</v>
+        <v>97177</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.8570437076071046</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.7734367397092278</v>
+        <v>0.7834453133676113</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.9183045527930822</v>
+        <v>0.9152816335861715</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>199</v>
@@ -920,19 +920,19 @@
         <v>203965</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>194254</v>
+        <v>193976</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>211449</v>
+        <v>211066</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.9140630601100598</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.8705442238911144</v>
+        <v>0.8692969803129397</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.9476006185689516</v>
+        <v>0.945884574284183</v>
       </c>
     </row>
     <row r="7">
@@ -1037,19 +1037,19 @@
         <v>4992</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1971</v>
+        <v>1950</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>11211</v>
+        <v>10846</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.03498192626462952</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.01381157067144358</v>
+        <v>0.01366215450834677</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.07855963484000388</v>
+        <v>0.07600598005558655</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>5</v>
@@ -1058,19 +1058,19 @@
         <v>4992</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1936</v>
+        <v>1970</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>11071</v>
+        <v>10887</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.02214044884834295</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.008585516436267636</v>
+        <v>0.008738754168699655</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.0491009349362918</v>
+        <v>0.04828649163702989</v>
       </c>
     </row>
     <row r="9">
@@ -1087,19 +1087,19 @@
         <v>7311</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>2797</v>
+        <v>3032</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>15642</v>
+        <v>15019</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.08833012761717685</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.03379235652215711</v>
+        <v>0.03662654238303037</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1889857959075071</v>
+        <v>0.1814542530561419</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>25</v>
@@ -1108,19 +1108,19 @@
         <v>26043</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>17243</v>
+        <v>17787</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>35915</v>
+        <v>36832</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1824966673485506</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1208315553661896</v>
+        <v>0.1246398242414127</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2516758115982375</v>
+        <v>0.2581035554409514</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>31</v>
@@ -1129,19 +1129,19 @@
         <v>33354</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>23943</v>
+        <v>23345</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>44968</v>
+        <v>45950</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1479291742899148</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1061927793370189</v>
+        <v>0.1035390936594149</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1994409062377255</v>
+        <v>0.2037941152696861</v>
       </c>
     </row>
     <row r="10">
@@ -1158,19 +1158,19 @@
         <v>75457</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>67126</v>
+        <v>67749</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>79971</v>
+        <v>79736</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.9116698723828232</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.8110142040924924</v>
+        <v>0.8185457469438576</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9662076434778428</v>
+        <v>0.9633734576169695</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>107</v>
@@ -1179,19 +1179,19 @@
         <v>111669</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>100680</v>
+        <v>101007</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>121029</v>
+        <v>121056</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.7825214063868199</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.7055156994659831</v>
+        <v>0.7078063091828248</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.8481091836745616</v>
+        <v>0.8483004815300524</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>179</v>
@@ -1200,19 +1200,19 @@
         <v>187126</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>175158</v>
+        <v>175210</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>196999</v>
+        <v>198052</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.8299303768617422</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.7768497688274585</v>
+        <v>0.7770795786439343</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.8737172059169935</v>
+        <v>0.8783895131704493</v>
       </c>
     </row>
     <row r="11">
@@ -1307,7 +1307,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>6583</v>
+        <v>5683</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.01598343109283875</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.056535639838961</v>
+        <v>0.04880555108792566</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>1</v>
@@ -1328,7 +1328,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>6321</v>
+        <v>5105</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.01551158868246944</v>
@@ -1337,7 +1337,7 @@
         <v>0</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.09583149371848872</v>
+        <v>0.07738483563734931</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>3</v>
@@ -1346,19 +1346,19 @@
         <v>2884</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>889</v>
+        <v>900</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>7886</v>
+        <v>8041</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.01581279420869636</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.004873233900101648</v>
+        <v>0.004933738496994812</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.04323596874083573</v>
+        <v>0.04408315968430562</v>
       </c>
     </row>
     <row r="13">
@@ -1375,19 +1375,19 @@
         <v>7573</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>3554</v>
+        <v>3473</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>15577</v>
+        <v>13250</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.06504250508755507</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03052209800524229</v>
+        <v>0.02982747666971071</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1337779606432147</v>
+        <v>0.1137958719254898</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>6</v>
@@ -1396,19 +1396,19 @@
         <v>6753</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>2877</v>
+        <v>2838</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>14054</v>
+        <v>14464</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1023738534541165</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04360887975390255</v>
+        <v>0.04302824990686387</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2130527423371274</v>
+        <v>0.2192765168439353</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>14</v>
@@ -1417,19 +1417,19 @@
         <v>14327</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>8424</v>
+        <v>7873</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>23644</v>
+        <v>23503</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.07854299768023688</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04618130826132995</v>
+        <v>0.04316285875454002</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1296237200538936</v>
+        <v>0.12885032757972</v>
       </c>
     </row>
     <row r="14">
@@ -1446,19 +1446,19 @@
         <v>107004</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>99237</v>
+        <v>100602</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>111738</v>
+        <v>111696</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9189740638196062</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.85226598349248</v>
+        <v>0.8639882604038163</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9596231470548768</v>
+        <v>0.9592700538431925</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>55</v>
@@ -1467,19 +1467,19 @@
         <v>58188</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>50228</v>
+        <v>50931</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>62232</v>
+        <v>62771</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8821145578634141</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7614467195618893</v>
+        <v>0.7721071672888185</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9434185262206575</v>
+        <v>0.9515971945819545</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>159</v>
@@ -1488,19 +1488,19 @@
         <v>165193</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>155917</v>
+        <v>155950</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>171711</v>
+        <v>171876</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9056442081110667</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8547870525082194</v>
+        <v>0.8549712180831968</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9413796971246355</v>
+        <v>0.942280067181489</v>
       </c>
     </row>
     <row r="15">
@@ -1592,19 +1592,19 @@
         <v>7201</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>3041</v>
+        <v>3074</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>13754</v>
+        <v>13729</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.03080154653183345</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.0130064225783894</v>
+        <v>0.01314833774210297</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.05882965410250846</v>
+        <v>0.0587224065745476</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>14</v>
@@ -1613,19 +1613,19 @@
         <v>16541</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>9559</v>
+        <v>9231</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>26399</v>
+        <v>27322</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.06688124477514923</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.03865165628084016</v>
+        <v>0.03732557875876118</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1067413303410244</v>
+        <v>0.1104725689257321</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>21</v>
@@ -1634,19 +1634,19 @@
         <v>23742</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>14825</v>
+        <v>14787</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>35039</v>
+        <v>35539</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.04934825952199733</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.03081282207780288</v>
+        <v>0.0307358134368139</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.07282938424140378</v>
+        <v>0.07386871734240498</v>
       </c>
     </row>
     <row r="17">
@@ -1663,19 +1663,19 @@
         <v>11548</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>5950</v>
+        <v>6082</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>19557</v>
+        <v>19545</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.0493922226440316</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.0254485205878526</v>
+        <v>0.0260119781307166</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.08364894704834909</v>
+        <v>0.08359870888526617</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>30</v>
@@ -1684,19 +1684,19 @@
         <v>31489</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>22244</v>
+        <v>21480</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>43058</v>
+        <v>43010</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1273227425342939</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.08994128515322569</v>
+        <v>0.08685398039141448</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1740997492332088</v>
+        <v>0.1739076544293248</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>42</v>
@@ -1705,19 +1705,19 @@
         <v>43037</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>31911</v>
+        <v>31381</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>55968</v>
+        <v>56024</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.0894522856698282</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.06632678486394537</v>
+        <v>0.0652246800979443</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1163295850906097</v>
+        <v>0.1164456022494078</v>
       </c>
     </row>
     <row r="18">
@@ -1734,19 +1734,19 @@
         <v>215050</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>204968</v>
+        <v>205128</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>221984</v>
+        <v>221815</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.9198062308241349</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.8766827946836655</v>
+        <v>0.8773679629168943</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.9494656523113649</v>
+        <v>0.9487404992438666</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>192</v>
@@ -1755,19 +1755,19 @@
         <v>199286</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>184595</v>
+        <v>185753</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>211046</v>
+        <v>211974</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.8057960126905569</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.7463933383595388</v>
+        <v>0.7510744894446075</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.8533449803446781</v>
+        <v>0.8570963398859537</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>399</v>
@@ -1776,19 +1776,19 @@
         <v>414336</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>399124</v>
+        <v>397389</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>429127</v>
+        <v>428419</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.8611994548081745</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.8295819119094675</v>
+        <v>0.825976072663877</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.8919419040709663</v>
+        <v>0.8904704079287663</v>
       </c>
     </row>
     <row r="19">
@@ -1883,7 +1883,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>7220</v>
+        <v>7085</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.02496595253363608</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1193502267974777</v>
+        <v>0.1171285730705499</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>9</v>
@@ -1901,19 +1901,19 @@
         <v>11095</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>5825</v>
+        <v>5525</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>20198</v>
+        <v>21927</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.05876207478043346</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.03084828167542158</v>
+        <v>0.02926038456483044</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1069703476149609</v>
+        <v>0.1161271682630646</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>10</v>
@@ -1922,19 +1922,19 @@
         <v>12606</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>6375</v>
+        <v>5948</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>21791</v>
+        <v>22391</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.05056189101298483</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.0255712035988746</v>
+        <v>0.02385561186162658</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.08740411943637283</v>
+        <v>0.08980961534107894</v>
       </c>
     </row>
     <row r="21">
@@ -1951,19 +1951,19 @@
         <v>8958</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>4257</v>
+        <v>4093</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>15665</v>
+        <v>15977</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1480871533614078</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.07036915185426207</v>
+        <v>0.06766427603527633</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2589587766853758</v>
+        <v>0.2641224236267654</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>25</v>
@@ -1972,19 +1972,19 @@
         <v>28505</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>18796</v>
+        <v>18684</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>39400</v>
+        <v>39844</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1509651236710771</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.09954219133140302</v>
+        <v>0.09895257519658009</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2086663281128814</v>
+        <v>0.211015635231321</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>33</v>
@@ -1993,19 +1993,19 @@
         <v>37463</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>27145</v>
+        <v>26569</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>51138</v>
+        <v>51020</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1502668220954049</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1088799373058789</v>
+        <v>0.1065688030866421</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2051169574377482</v>
+        <v>0.2046437215178271</v>
       </c>
     </row>
     <row r="22">
@@ -2022,19 +2022,19 @@
         <v>50024</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>42772</v>
+        <v>43066</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>54903</v>
+        <v>55101</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.8269468941049561</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.7070762098591019</v>
+        <v>0.711930476946148</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9076091448881609</v>
+        <v>0.9108866207916382</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>146</v>
@@ -2043,19 +2043,19 @@
         <v>149219</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>137172</v>
+        <v>136707</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>160765</v>
+        <v>160959</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.7902728015484894</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.7264706551357228</v>
+        <v>0.7240088478442833</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.8514207903505174</v>
+        <v>0.8524479156100997</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>193</v>
@@ -2064,19 +2064,19 @@
         <v>199244</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>185315</v>
+        <v>183802</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>212889</v>
+        <v>211601</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.7991712868916103</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.7433036113706419</v>
+        <v>0.7372347841392961</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.8539039578175363</v>
+        <v>0.8487353815730913</v>
       </c>
     </row>
     <row r="23">
@@ -2181,19 +2181,19 @@
         <v>15154</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>8894</v>
+        <v>8295</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>23790</v>
+        <v>24431</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.06182406432896671</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.03628620992814734</v>
+        <v>0.03384059838261284</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.09705674921356734</v>
+        <v>0.09967353392921295</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>15</v>
@@ -2202,19 +2202,19 @@
         <v>15154</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>8877</v>
+        <v>8422</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>24005</v>
+        <v>23851</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.05913304993933261</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.03464168328870844</v>
+        <v>0.03286570745253738</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.09367147093866823</v>
+        <v>0.09307228569486581</v>
       </c>
     </row>
     <row r="25">
@@ -2234,7 +2234,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>7018</v>
+        <v>6949</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2874892770480079</v>
@@ -2243,7 +2243,7 @@
         <v>0</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.6291722357626204</v>
+        <v>0.6229975594920157</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>41</v>
@@ -2252,19 +2252,19 @@
         <v>43433</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>31550</v>
+        <v>32096</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>56644</v>
+        <v>56525</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1771973554954865</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1287182192970677</v>
+        <v>0.1309434353456125</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.231093311859831</v>
+        <v>0.230609902743536</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>43</v>
@@ -2273,19 +2273,19 @@
         <v>46640</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>33377</v>
+        <v>35253</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>59735</v>
+        <v>60680</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1819980290063538</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1302454985797027</v>
+        <v>0.1375660116266618</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2330975585908393</v>
+        <v>0.2367837119502743</v>
       </c>
     </row>
     <row r="26">
@@ -2302,7 +2302,7 @@
         <v>7947</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>4136</v>
+        <v>4205</v>
       </c>
       <c r="F26" s="5" t="n">
         <v>11154</v>
@@ -2311,7 +2311,7 @@
         <v>0.7125107229519921</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.3708277642373796</v>
+        <v>0.3770024405079842</v>
       </c>
       <c r="I26" s="6" t="n">
         <v>1</v>
@@ -2323,19 +2323,19 @@
         <v>186525</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>173422</v>
+        <v>171327</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>201150</v>
+        <v>198877</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.7609785801755469</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.7075212820985942</v>
+        <v>0.6989745269359934</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8206449595660064</v>
+        <v>0.8113724636084675</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>192</v>
@@ -2344,19 +2344,19 @@
         <v>194472</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>180070</v>
+        <v>180452</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>209656</v>
+        <v>207890</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.7588689210543136</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.7026690081316639</v>
+        <v>0.7041579662035077</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8181171621864152</v>
+        <v>0.8112259555475423</v>
       </c>
     </row>
     <row r="27">
@@ -2448,19 +2448,19 @@
         <v>10573</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>5375</v>
+        <v>5340</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>19073</v>
+        <v>18934</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.01700825399198888</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.008646045663105962</v>
+        <v>0.008590296928139561</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.03068279950719993</v>
+        <v>0.03045944287669898</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>45</v>
@@ -2469,19 +2469,19 @@
         <v>49956</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>37485</v>
+        <v>36906</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>67013</v>
+        <v>65205</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.0501524516021322</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.03763196938118228</v>
+        <v>0.03705052985782906</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.06727587358089095</v>
+        <v>0.06546112951155583</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>55</v>
@@ -2490,19 +2490,19 @@
         <v>60529</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>46949</v>
+        <v>44935</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>78010</v>
+        <v>75543</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.03741644653177465</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.02902172652058629</v>
+        <v>0.02777688666971866</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.04822231215823265</v>
+        <v>0.04669756261477839</v>
       </c>
     </row>
     <row r="29">
@@ -2519,19 +2519,19 @@
         <v>42595</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>31717</v>
+        <v>31190</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>57844</v>
+        <v>57582</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.06852289849745966</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.0510237497569116</v>
+        <v>0.05017449916687127</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.09305364422752574</v>
+        <v>0.09263241913508159</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>140</v>
@@ -2540,19 +2540,19 @@
         <v>150250</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>128691</v>
+        <v>127614</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>175767</v>
+        <v>173320</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.150840489065603</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1291963571054921</v>
+        <v>0.1281153516775943</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1764577493882161</v>
+        <v>0.174000420134824</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>180</v>
@@ -2561,19 +2561,19 @@
         <v>192846</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>168071</v>
+        <v>166779</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>218655</v>
+        <v>222705</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1192090927292909</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1038943336786609</v>
+        <v>0.1030953866431699</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1351629045475215</v>
+        <v>0.1376666908878505</v>
       </c>
     </row>
     <row r="30">
@@ -2590,19 +2590,19 @@
         <v>568454</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>552346</v>
+        <v>552485</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>581075</v>
+        <v>580449</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.9144688475105515</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.8885567094124864</v>
+        <v>0.8887790665100262</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.9347716174885692</v>
+        <v>0.933764860218686</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>772</v>
@@ -2611,19 +2611,19 @@
         <v>795881</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>767914</v>
+        <v>768531</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>821087</v>
+        <v>819925</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.7990070593322648</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.7709301626580609</v>
+        <v>0.771549417288151</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.8243120657044539</v>
+        <v>0.8231455555180701</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>1321</v>
@@ -2632,19 +2632,19 @@
         <v>1364336</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>1334276</v>
+        <v>1332525</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>1392492</v>
+        <v>1394114</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.8433744607389344</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.8247925330991727</v>
+        <v>0.8237104086576779</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.8607793431292058</v>
+        <v>0.8617817867225036</v>
       </c>
     </row>
     <row r="31">
@@ -3025,19 +3025,19 @@
         <v>9683</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>4846</v>
+        <v>4948</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>17101</v>
+        <v>17753</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.06559373041089912</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.03283065264002359</v>
+        <v>0.03352171248220219</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1158440986614173</v>
+        <v>0.1202606140950427</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>33</v>
@@ -3046,19 +3046,19 @@
         <v>37224</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>26503</v>
+        <v>26497</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>49842</v>
+        <v>50426</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2260565721942618</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1609474149566079</v>
+        <v>0.1609090253912811</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3026813818902407</v>
+        <v>0.3062253496162438</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>43</v>
@@ -3067,19 +3067,19 @@
         <v>46907</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>35619</v>
+        <v>34895</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>61133</v>
+        <v>61926</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1502051573832087</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1140594462900364</v>
+        <v>0.1117398385972851</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1957591798068343</v>
+        <v>0.1982975747067265</v>
       </c>
     </row>
     <row r="6">
@@ -3096,19 +3096,19 @@
         <v>137936</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>130518</v>
+        <v>129866</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>142773</v>
+        <v>142671</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.9344062695891009</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.8841559013385826</v>
+        <v>0.8797393859049569</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.9671693473599764</v>
+        <v>0.9664782875177979</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>116</v>
@@ -3117,19 +3117,19 @@
         <v>127444</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>114826</v>
+        <v>114242</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>138165</v>
+        <v>138171</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.7739434278057382</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.6973186181097591</v>
+        <v>0.6937746503837565</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.8390525850433921</v>
+        <v>0.839090974608719</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>246</v>
@@ -3138,19 +3138,19 @@
         <v>265380</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>251154</v>
+        <v>250361</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>276668</v>
+        <v>277392</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.8497948426167913</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.8042408201931658</v>
+        <v>0.8017024252932733</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.8859405537099636</v>
+        <v>0.8882601614027147</v>
       </c>
     </row>
     <row r="7">
@@ -3245,7 +3245,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>4310</v>
+        <v>4383</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.005583753427904959</v>
@@ -3254,7 +3254,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.02808549679889114</v>
+        <v>0.0285643479494451</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1</v>
@@ -3266,7 +3266,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>5907</v>
+        <v>4925</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.004919972342726045</v>
@@ -3275,7 +3275,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.02999996819410942</v>
+        <v>0.02501004663090708</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2</v>
@@ -3287,7 +3287,7 @@
         <v>0</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>6497</v>
+        <v>6248</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.005210699740998151</v>
@@ -3296,7 +3296,7 @@
         <v>0</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.01854356998527177</v>
+        <v>0.01783309514634886</v>
       </c>
     </row>
     <row r="9">
@@ -3313,19 +3313,19 @@
         <v>22152</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>14318</v>
+        <v>14465</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>33254</v>
+        <v>32530</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1443556898530209</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.09330554306664303</v>
+        <v>0.09426437805792977</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2167078617726417</v>
+        <v>0.211989103661427</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>45</v>
@@ -3334,19 +3334,19 @@
         <v>49697</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>38044</v>
+        <v>37626</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>64059</v>
+        <v>64949</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.2523914465451532</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1932090037700231</v>
+        <v>0.1910849813993336</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.3253264263972111</v>
+        <v>0.3298493912873443</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>66</v>
@@ -3355,19 +3355,19 @@
         <v>71849</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>57636</v>
+        <v>55923</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>87756</v>
+        <v>87822</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.2050732038823693</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1645046199585661</v>
+        <v>0.1596159496197073</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2504759076954899</v>
+        <v>0.2506643181830538</v>
       </c>
     </row>
     <row r="10">
@@ -3384,19 +3384,19 @@
         <v>130444</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>119303</v>
+        <v>120069</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>138261</v>
+        <v>138376</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.8500605567190741</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.777458949875347</v>
+        <v>0.7824471717563206</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9010012257198784</v>
+        <v>0.9017494784392966</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>130</v>
@@ -3405,19 +3405,19 @@
         <v>146240</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>131843</v>
+        <v>131001</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>158134</v>
+        <v>158283</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.7426885811121208</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.6695707905269137</v>
+        <v>0.6652983037126283</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.8030938244468458</v>
+        <v>0.8038525611786499</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>248</v>
@@ -3426,19 +3426,19 @@
         <v>276684</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>260796</v>
+        <v>260182</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>291746</v>
+        <v>292567</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.7897160963766325</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.7443681206573817</v>
+        <v>0.742614890569903</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.8327054941627895</v>
+        <v>0.8350485333130174</v>
       </c>
     </row>
     <row r="11">
@@ -3577,19 +3577,19 @@
         <v>27957</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>18825</v>
+        <v>18231</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>39021</v>
+        <v>39651</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1460974120880588</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.0983760009588153</v>
+        <v>0.09527183603052702</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2039134917803977</v>
+        <v>0.2072040012116546</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>20</v>
@@ -3598,19 +3598,19 @@
         <v>21456</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>13765</v>
+        <v>13561</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>30479</v>
+        <v>30543</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1995509412846103</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1280219225880866</v>
+        <v>0.1261248528626197</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2834724118699338</v>
+        <v>0.2840644679493157</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>45</v>
@@ -3619,19 +3619,19 @@
         <v>49413</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>37912</v>
+        <v>37145</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>63530</v>
+        <v>64800</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1653269069897027</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1268462466351646</v>
+        <v>0.1242791261218852</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2125596218730892</v>
+        <v>0.2168084225291301</v>
       </c>
     </row>
     <row r="14">
@@ -3648,19 +3648,19 @@
         <v>163405</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>152341</v>
+        <v>151711</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>172537</v>
+        <v>173131</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8539025879119412</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.796086508219602</v>
+        <v>0.7927959987883454</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9016239990411846</v>
+        <v>0.904728163969473</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>83</v>
@@ -3669,19 +3669,19 @@
         <v>86065</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>77042</v>
+        <v>76978</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>93756</v>
+        <v>93960</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8004490587153897</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7165275881300663</v>
+        <v>0.7159355320506842</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8719780774119135</v>
+        <v>0.87387514713738</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>243</v>
@@ -3690,19 +3690,19 @@
         <v>249470</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>235353</v>
+        <v>234083</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>260971</v>
+        <v>261738</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8346730930102974</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7874403781269109</v>
+        <v>0.7831915774708699</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8731537533648354</v>
+        <v>0.8757208738781148</v>
       </c>
     </row>
     <row r="15">
@@ -3797,7 +3797,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>6147</v>
+        <v>6828</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.005811055639471577</v>
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.018165153481599</v>
+        <v>0.02017719211221281</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1</v>
@@ -3818,7 +3818,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>9133</v>
+        <v>10429</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.004741138796330968</v>
@@ -3827,7 +3827,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.02320115127944911</v>
+        <v>0.02649450901214082</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>3</v>
@@ -3836,19 +3836,19 @@
         <v>3833</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>950</v>
+        <v>940</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>11958</v>
+        <v>11809</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.005235748782903601</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.0012981266950268</v>
+        <v>0.001284382100320731</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01633446370016801</v>
+        <v>0.01613143408140887</v>
       </c>
     </row>
     <row r="17">
@@ -3865,19 +3865,19 @@
         <v>41556</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>30116</v>
+        <v>30532</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>53855</v>
+        <v>55052</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1227944798457199</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.08898921025261992</v>
+        <v>0.09022030222904699</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1591357926830001</v>
+        <v>0.1626723258794798</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>91</v>
@@ -3886,19 +3886,19 @@
         <v>96827</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>80059</v>
+        <v>79837</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>115973</v>
+        <v>115673</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2459805133479323</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2033844562386199</v>
+        <v>0.2028209924171667</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.294621086889161</v>
+        <v>0.2938595618148241</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>132</v>
@@ -3907,19 +3907,19 @@
         <v>138383</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>117666</v>
+        <v>117634</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>162239</v>
+        <v>160599</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1890330573217093</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1607339387738509</v>
+        <v>0.1606904777676312</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2216211507551486</v>
+        <v>0.2193815201400903</v>
       </c>
     </row>
     <row r="18">
@@ -3936,19 +3936,19 @@
         <v>294897</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>282598</v>
+        <v>281927</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>306647</v>
+        <v>306539</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.8713944645148085</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.8350510567802775</v>
+        <v>0.8330689980352187</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.9061150379497905</v>
+        <v>0.9057935868969976</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>276</v>
@@ -3957,19 +3957,19 @@
         <v>294942</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>275503</v>
+        <v>276232</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>311144</v>
+        <v>313190</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.7492783478557367</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.6998957364078695</v>
+        <v>0.7017457354517748</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.790439089931451</v>
+        <v>0.7956351087235672</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>553</v>
@@ -3978,19 +3978,19 @@
         <v>589840</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>564951</v>
+        <v>566549</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>611025</v>
+        <v>609997</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.8057311938953872</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.7717335489579235</v>
+        <v>0.7739164641672178</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.8346703620614399</v>
+        <v>0.8332672418791017</v>
       </c>
     </row>
     <row r="19">
@@ -4129,19 +4129,19 @@
         <v>28278</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>19421</v>
+        <v>19954</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>38522</v>
+        <v>38652</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2117279592321609</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1454128104113156</v>
+        <v>0.1494069512457755</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2884280728926232</v>
+        <v>0.2894080416728348</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>78</v>
@@ -4150,19 +4150,19 @@
         <v>85098</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>69052</v>
+        <v>70399</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>103165</v>
+        <v>104576</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2394431252174564</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1942934863129114</v>
+        <v>0.1980825972769563</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2902785606120749</v>
+        <v>0.2942488638945379</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>105</v>
@@ -4171,19 +4171,19 @@
         <v>113376</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>93653</v>
+        <v>94143</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>132096</v>
+        <v>134142</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.2318728301514988</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1915362695466492</v>
+        <v>0.1925390126580894</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2701588507365674</v>
+        <v>0.2743443812714648</v>
       </c>
     </row>
     <row r="22">
@@ -4200,19 +4200,19 @@
         <v>105279</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>95035</v>
+        <v>94905</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>114136</v>
+        <v>113603</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.7882720407678391</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.7115719271073769</v>
+        <v>0.7105919583271653</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.8545871895886844</v>
+        <v>0.8505930487542245</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>249</v>
@@ -4221,19 +4221,19 @@
         <v>270302</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>252235</v>
+        <v>250824</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>286348</v>
+        <v>285001</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.7605568747825436</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.709721439387925</v>
+        <v>0.705751136105462</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.8057065136870883</v>
+        <v>0.8019174027230438</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>350</v>
@@ -4242,19 +4242,19 @@
         <v>375580</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>356860</v>
+        <v>354814</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>395303</v>
+        <v>394813</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.7681271698485012</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.7298411492634326</v>
+        <v>0.7256556187285351</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.8084637304533507</v>
+        <v>0.8074609873419105</v>
       </c>
     </row>
     <row r="23">
@@ -4406,19 +4406,19 @@
         <v>77252</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>63233</v>
+        <v>63612</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>93840</v>
+        <v>92373</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.270506684453554</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2214176066147923</v>
+        <v>0.2227432822891396</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3285897052209932</v>
+        <v>0.3234532565618115</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>73</v>
@@ -4427,19 +4427,19 @@
         <v>77252</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>63416</v>
+        <v>64059</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>94650</v>
+        <v>93522</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2629720805456466</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.21587156306744</v>
+        <v>0.2180621782537106</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3221955868772347</v>
+        <v>0.3183545213033042</v>
       </c>
     </row>
     <row r="26">
@@ -4469,19 +4469,19 @@
         <v>208331</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>191743</v>
+        <v>193210</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>222350</v>
+        <v>221971</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.729493315546446</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.6714102947790064</v>
+        <v>0.6765467434381885</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.7785823933852073</v>
+        <v>0.7772567177108605</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>207</v>
@@ -4490,19 +4490,19 @@
         <v>216514</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>199116</v>
+        <v>200244</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>230350</v>
+        <v>229707</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.7370279194543533</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.677804413122766</v>
+        <v>0.6816454786966958</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.7841284369325601</v>
+        <v>0.7819378217462889</v>
       </c>
     </row>
     <row r="27">
@@ -4594,19 +4594,19 @@
         <v>2823</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>858</v>
+        <v>847</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>7749</v>
+        <v>7348</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.002902981236648674</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.0008817959048136188</v>
+        <v>0.000870766672680199</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.007967509154130524</v>
+        <v>0.007554893005643715</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>2</v>
@@ -4618,7 +4618,7 @@
         <v>0</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>11160</v>
+        <v>10386</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.001885367094509341</v>
@@ -4627,7 +4627,7 @@
         <v>0</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.007421300055897734</v>
+        <v>0.006906662150853919</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>5</v>
@@ -4636,19 +4636,19 @@
         <v>5658</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>1888</v>
+        <v>1879</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>14026</v>
+        <v>12617</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.002285045125619806</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.0007625410516589891</v>
+        <v>0.0007588749637999274</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.005664164009900803</v>
+        <v>0.005095161353480236</v>
       </c>
     </row>
     <row r="29">
@@ -4665,19 +4665,19 @@
         <v>129626</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>108093</v>
+        <v>108418</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>152608</v>
+        <v>151973</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1332786859129319</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1111385035696009</v>
+        <v>0.1114729602580835</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1569077986946813</v>
+        <v>0.1562555954784756</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>340</v>
@@ -4686,19 +4686,19 @@
         <v>367554</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>334439</v>
+        <v>332490</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>403958</v>
+        <v>403396</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.2444311778661774</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2224088085400401</v>
+        <v>0.221112849733332</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2686400645932113</v>
+        <v>0.268266804176682</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>464</v>
@@ -4707,19 +4707,19 @@
         <v>497180</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>457507</v>
+        <v>455492</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>536488</v>
+        <v>539070</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2007749359791497</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.184753677127735</v>
+        <v>0.1839401134654461</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.216648534292432</v>
+        <v>0.2176909430545385</v>
       </c>
     </row>
     <row r="30">
@@ -4736,19 +4736,19 @@
         <v>840145</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>818795</v>
+        <v>818172</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>861693</v>
+        <v>862933</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.8638183328504194</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.8418667926828221</v>
+        <v>0.8412262698378625</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.8859737077621977</v>
+        <v>0.8872484422855288</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>1053</v>
@@ -4757,19 +4757,19 @@
         <v>1133324</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>1097431</v>
+        <v>1097148</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>1167393</v>
+        <v>1168622</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.7536834550393132</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.7298139541929374</v>
+        <v>0.7296261294804375</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.7763404695606035</v>
+        <v>0.7771578184293925</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>1847</v>
@@ -4778,19 +4778,19 @@
         <v>1973468</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>1933695</v>
+        <v>1933222</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>2011835</v>
+        <v>2015722</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.7969400188952305</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.7808786549873864</v>
+        <v>0.7806874204208066</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.8124335428908382</v>
+        <v>0.8140034680842807</v>
       </c>
     </row>
     <row r="31">
@@ -5127,7 +5127,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>4604</v>
+        <v>4150</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01039270681430973</v>
@@ -5136,7 +5136,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04918814001264089</v>
+        <v>0.04434043401780288</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>13</v>
@@ -5145,19 +5145,19 @@
         <v>13579</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>7576</v>
+        <v>7548</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>22121</v>
+        <v>22995</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.09929242590836586</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.0553966071046501</v>
+        <v>0.05519456412694541</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1617539865834031</v>
+        <v>0.1681385610381705</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>14</v>
@@ -5166,19 +5166,19 @@
         <v>14552</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>7706</v>
+        <v>8114</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>23098</v>
+        <v>23101</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.06317202653779579</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.03345393547344802</v>
+        <v>0.03522475862832965</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1002728725265751</v>
+        <v>0.1002868416501536</v>
       </c>
     </row>
     <row r="5">
@@ -5195,19 +5195,19 @@
         <v>16848</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>10458</v>
+        <v>10356</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>25043</v>
+        <v>25562</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1800109844384309</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1117420617510572</v>
+        <v>0.1106517914301934</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2675719624221652</v>
+        <v>0.2731155696772838</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>31</v>
@@ -5216,19 +5216,19 @@
         <v>31344</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>22369</v>
+        <v>22158</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>42180</v>
+        <v>41869</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2291932864859103</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1635650407625057</v>
+        <v>0.1620229600270359</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3084206101010763</v>
+        <v>0.3061501661712144</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>47</v>
@@ -5237,19 +5237,19 @@
         <v>48192</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>36809</v>
+        <v>36212</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>61402</v>
+        <v>62502</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2092102718034967</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1597960049853646</v>
+        <v>0.1572009462213487</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2665579128896484</v>
+        <v>0.2713313663542041</v>
       </c>
     </row>
     <row r="6">
@@ -5266,19 +5266,19 @@
         <v>75773</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>67134</v>
+        <v>66623</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>82358</v>
+        <v>82594</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.8095963087472593</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.7172847459739684</v>
+        <v>0.7118276626068251</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.8799446071076263</v>
+        <v>0.8824737702160156</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>90</v>
@@ -5287,19 +5287,19 @@
         <v>91836</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>80257</v>
+        <v>79684</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>102611</v>
+        <v>102442</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.6715142876057238</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.5868481358888672</v>
+        <v>0.5826539786312627</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.7502976065491842</v>
+        <v>0.749064590116764</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>159</v>
@@ -5308,19 +5308,19 @@
         <v>167609</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>152545</v>
+        <v>152641</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>180599</v>
+        <v>181312</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.7276177016587074</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.6622231239176912</v>
+        <v>0.6626412371979588</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.7840113688217011</v>
+        <v>0.7871033121249036</v>
       </c>
     </row>
     <row r="7">
@@ -5415,7 +5415,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>5587</v>
+        <v>5518</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.01709140851848355</v>
@@ -5424,7 +5424,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.05349871136059192</v>
+        <v>0.05283531910136177</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>15</v>
@@ -5433,19 +5433,19 @@
         <v>14451</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>8442</v>
+        <v>8581</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>23672</v>
+        <v>22613</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.09455172792133086</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.05523849428398946</v>
+        <v>0.05614765568734419</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1548872432959012</v>
+        <v>0.1479592008884878</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>17</v>
@@ -5454,19 +5454,19 @@
         <v>16236</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>10121</v>
+        <v>9758</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>24790</v>
+        <v>24919</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.0631068273002765</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.03933789132705116</v>
+        <v>0.03792685995954648</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.0963537552165933</v>
+        <v>0.09685553057621969</v>
       </c>
     </row>
     <row r="9">
@@ -5483,19 +5483,19 @@
         <v>19320</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>12274</v>
+        <v>11715</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>28849</v>
+        <v>28430</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1849829408443785</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1175253543223035</v>
+        <v>0.1121730105376956</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2762203609261573</v>
+        <v>0.2722132807368228</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>42</v>
@@ -5504,19 +5504,19 @@
         <v>43224</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>33251</v>
+        <v>33264</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>55764</v>
+        <v>54984</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.2828123554853457</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.2175570579493288</v>
+        <v>0.2176429106621434</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.3648588307344625</v>
+        <v>0.3597549809111409</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>60</v>
@@ -5525,19 +5525,19 @@
         <v>62544</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>48828</v>
+        <v>48929</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>76620</v>
+        <v>75557</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.2430986511665889</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1897893534128409</v>
+        <v>0.1901783138934214</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2978109550872714</v>
+        <v>0.2936810544868802</v>
       </c>
     </row>
     <row r="10">
@@ -5554,19 +5554,19 @@
         <v>83336</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>73643</v>
+        <v>74554</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>90576</v>
+        <v>91341</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.7979256506371379</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.7051180554164164</v>
+        <v>0.713835512163968</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.8672464057791152</v>
+        <v>0.8745686486404197</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>90</v>
@@ -5575,19 +5575,19 @@
         <v>95161</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>81617</v>
+        <v>83256</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>105737</v>
+        <v>106975</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.6226359165933235</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.5340148356738023</v>
+        <v>0.5447414085291546</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.6918338783346103</v>
+        <v>0.6999349497019578</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>170</v>
@@ -5596,19 +5596,19 @@
         <v>178497</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>163582</v>
+        <v>164559</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>192653</v>
+        <v>192928</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.6937945215331346</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.6358189165463093</v>
+        <v>0.6396167129922671</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.748816549317463</v>
+        <v>0.7498851812756507</v>
       </c>
     </row>
     <row r="11">
@@ -5700,19 +5700,19 @@
         <v>6270</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2206</v>
+        <v>2763</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>12485</v>
+        <v>12454</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.04869196247006796</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.01713535812366391</v>
+        <v>0.02146105452105622</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.09695814828336202</v>
+        <v>0.09671806434627646</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>2</v>
@@ -5724,7 +5724,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>7626</v>
+        <v>7093</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.0439634191448654</v>
@@ -5733,7 +5733,7 @@
         <v>0</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1481660693850247</v>
+        <v>0.1378080855596887</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>8</v>
@@ -5742,19 +5742,19 @@
         <v>8533</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>4118</v>
+        <v>3876</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>16430</v>
+        <v>15566</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.04734164438630972</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.0228486825068302</v>
+        <v>0.02150339104208649</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.09115637674682196</v>
+        <v>0.08636533903185432</v>
       </c>
     </row>
     <row r="13">
@@ -5771,19 +5771,19 @@
         <v>28441</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>19554</v>
+        <v>19673</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>38854</v>
+        <v>39702</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2208735952157274</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1518586563018761</v>
+        <v>0.152777378486449</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3017379075733337</v>
+        <v>0.3083281506336785</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>13</v>
@@ -5792,19 +5792,19 @@
         <v>12886</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>7261</v>
+        <v>7663</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>19655</v>
+        <v>20851</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.250358235679504</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1410762292490201</v>
+        <v>0.1488764038748907</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3818802351077439</v>
+        <v>0.4051108093514844</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>39</v>
@@ -5813,19 +5813,19 @@
         <v>41327</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>30388</v>
+        <v>31053</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>54711</v>
+        <v>55691</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2292934489578186</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1686014709009709</v>
+        <v>0.172293470906224</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3035521024519085</v>
+        <v>0.3089881207103268</v>
       </c>
     </row>
     <row r="14">
@@ -5842,19 +5842,19 @@
         <v>94055</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>83069</v>
+        <v>82294</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>104029</v>
+        <v>103582</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7304344423142046</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6451132319566032</v>
+        <v>0.6390984983627619</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8078947611959593</v>
+        <v>0.8044206362067305</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>33</v>
@@ -5863,19 +5863,19 @@
         <v>36321</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>29210</v>
+        <v>29227</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>41996</v>
+        <v>42440</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7056783451756306</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5675197825907995</v>
+        <v>0.5678481713255347</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8159486732735339</v>
+        <v>0.8245799613963296</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>122</v>
@@ -5884,19 +5884,19 @@
         <v>130376</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>117817</v>
+        <v>117803</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>142673</v>
+        <v>142907</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7233649066558716</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6536804745036418</v>
+        <v>0.6536047236209231</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7915920135062161</v>
+        <v>0.7928876952026245</v>
       </c>
     </row>
     <row r="15">
@@ -5988,19 +5988,19 @@
         <v>15189</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>8334</v>
+        <v>8293</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>24858</v>
+        <v>24547</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.06232200046403055</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.03419791647524818</v>
+        <v>0.03402954216335372</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1019959885704269</v>
+        <v>0.1007231658437659</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>34</v>
@@ -6009,19 +6009,19 @@
         <v>35637</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>24665</v>
+        <v>25972</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>48242</v>
+        <v>48736</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1187740768002681</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.08220589978177542</v>
+        <v>0.08656089497632642</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1607815698039566</v>
+        <v>0.1624298040806101</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>48</v>
@@ -6030,19 +6030,19 @@
         <v>50826</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>38296</v>
+        <v>37732</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>66153</v>
+        <v>64971</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.09347226382700258</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.07042949816673037</v>
+        <v>0.06939106199329136</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1216599953072288</v>
+        <v>0.1194859975030112</v>
       </c>
     </row>
     <row r="17">
@@ -6059,19 +6059,19 @@
         <v>49822</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>37306</v>
+        <v>38255</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>62951</v>
+        <v>63343</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2044322312396935</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1530728853044874</v>
+        <v>0.1569692776550411</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2583014733652049</v>
+        <v>0.259909781499481</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>83</v>
@@ -6080,19 +6080,19 @@
         <v>83292</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>68905</v>
+        <v>68860</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>98363</v>
+        <v>99327</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2776000944258661</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2296495709516298</v>
+        <v>0.229499501571485</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3278292486156991</v>
+        <v>0.3310411240040683</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>131</v>
@@ -6101,19 +6101,19 @@
         <v>133115</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>113707</v>
+        <v>112543</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>154061</v>
+        <v>153261</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2448062680488964</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2091140688389026</v>
+        <v>0.2069731253497745</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2833280529955516</v>
+        <v>0.2818564405708107</v>
       </c>
     </row>
     <row r="18">
@@ -6130,19 +6130,19 @@
         <v>178700</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>165175</v>
+        <v>163274</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>192549</v>
+        <v>191667</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.733245768296276</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.6777491370955457</v>
+        <v>0.6699474870016158</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.7900698973214381</v>
+        <v>0.7864533400111794</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>182</v>
@@ -6151,19 +6151,19 @@
         <v>181114</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>164089</v>
+        <v>163258</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>196940</v>
+        <v>197469</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.6036258287738658</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.5468843416384986</v>
+        <v>0.5441133162987157</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.6563710176056816</v>
+        <v>0.6581344124636873</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>356</v>
@@ -6172,19 +6172,19 @@
         <v>359814</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>336653</v>
+        <v>336885</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>381982</v>
+        <v>382328</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.661721468124101</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.6191267151922991</v>
+        <v>0.6195523449353155</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.702490002382956</v>
+        <v>0.7031258943717161</v>
       </c>
     </row>
     <row r="19">
@@ -6276,19 +6276,19 @@
         <v>9533</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>4874</v>
+        <v>4324</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>18005</v>
+        <v>16594</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.07260773845949894</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.03712187297214428</v>
+        <v>0.03293799770748947</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1371446414901725</v>
+        <v>0.1263961154325623</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>21</v>
@@ -6297,19 +6297,19 @@
         <v>21494</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>14422</v>
+        <v>13722</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>31794</v>
+        <v>31905</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.08939127600405961</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.05998241860508287</v>
+        <v>0.05707081032923619</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1322282160262797</v>
+        <v>0.1326898087868854</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>30</v>
@@ -6318,19 +6318,19 @@
         <v>31026</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>21402</v>
+        <v>21592</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>42243</v>
+        <v>43512</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.0834636985696173</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.05757406312003532</v>
+        <v>0.05808408424778184</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1136383580772804</v>
+        <v>0.1170512628644945</v>
       </c>
     </row>
     <row r="21">
@@ -6347,19 +6347,19 @@
         <v>16888</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>10102</v>
+        <v>10257</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>25353</v>
+        <v>27215</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1286327867618763</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.07694346749692427</v>
+        <v>0.07812802898868886</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1931108313732552</v>
+        <v>0.2072951838409305</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>43</v>
@@ -6368,19 +6368,19 @@
         <v>44301</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>33480</v>
+        <v>34062</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>57193</v>
+        <v>57873</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1842465536218764</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1392401649933119</v>
+        <v>0.1416618777628305</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2378630455889661</v>
+        <v>0.2406904840776096</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>59</v>
@@ -6389,19 +6389,19 @@
         <v>61189</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>47420</v>
+        <v>46907</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>76895</v>
+        <v>75994</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1646049906552831</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1275647824162661</v>
+        <v>0.1261842140328661</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2068565315341895</v>
+        <v>0.2044311670601318</v>
       </c>
     </row>
     <row r="22">
@@ -6418,19 +6418,19 @@
         <v>104868</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>94804</v>
+        <v>93797</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>113170</v>
+        <v>112675</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.7987594747786247</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.7221065606437196</v>
+        <v>0.7144389084601697</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.8620004678850615</v>
+        <v>0.8582278468173593</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>172</v>
@@ -6439,19 +6439,19 @@
         <v>174650</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>159407</v>
+        <v>160164</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>187344</v>
+        <v>187019</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.7263621703740639</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.6629680416364602</v>
+        <v>0.6661144444758832</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.7791553217429147</v>
+        <v>0.7778050911409384</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>270</v>
@@ -6460,19 +6460,19 @@
         <v>279518</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>262863</v>
+        <v>262840</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>296684</v>
+        <v>297527</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.7519313107750997</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.7071298390890951</v>
+        <v>0.7070676480254755</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.7981095214692574</v>
+        <v>0.800377971516816</v>
       </c>
     </row>
     <row r="23">
@@ -6577,19 +6577,19 @@
         <v>20205</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>12536</v>
+        <v>13049</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>31685</v>
+        <v>31884</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.109946841494304</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.06821523997224566</v>
+        <v>0.07100532231738561</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.172414620546125</v>
+        <v>0.173500765097292</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>19</v>
@@ -6598,19 +6598,19 @@
         <v>20205</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>11985</v>
+        <v>12630</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>29858</v>
+        <v>31064</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.09994641741889052</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.05928342938776264</v>
+        <v>0.06247556481609799</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1476939339856264</v>
+        <v>0.15365909460817</v>
       </c>
     </row>
     <row r="25">
@@ -6630,7 +6630,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>7217</v>
+        <v>7371</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1175061702529659</v>
@@ -6639,7 +6639,7 @@
         <v>0</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3924620897603981</v>
+        <v>0.4008688752623897</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>37</v>
@@ -6648,19 +6648,19 @@
         <v>38660</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>27994</v>
+        <v>28826</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>49621</v>
+        <v>50751</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2103729562473269</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1523318259663366</v>
+        <v>0.1568597978084874</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2700142093619967</v>
+        <v>0.2761659474164885</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>39</v>
@@ -6669,19 +6669,19 @@
         <v>40821</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>30579</v>
+        <v>29586</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>53985</v>
+        <v>54110</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2019260811043753</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1512636064970325</v>
+        <v>0.1463489647591583</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2670406818712082</v>
+        <v>0.2676587344043311</v>
       </c>
     </row>
     <row r="26">
@@ -6698,7 +6698,7 @@
         <v>16227</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>11171</v>
+        <v>11017</v>
       </c>
       <c r="F26" s="5" t="n">
         <v>18388</v>
@@ -6707,7 +6707,7 @@
         <v>0.8824938297470341</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.6075379102396007</v>
+        <v>0.5991311247376102</v>
       </c>
       <c r="I26" s="6" t="n">
         <v>1</v>
@@ -6719,19 +6719,19 @@
         <v>124906</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>112523</v>
+        <v>111453</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>138000</v>
+        <v>138294</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.6796802022583691</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.6123007125375992</v>
+        <v>0.6064801124915542</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.7509322481185768</v>
+        <v>0.7525341844460293</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>130</v>
@@ -6740,19 +6740,19 @@
         <v>141133</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>127142</v>
+        <v>127751</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>154182</v>
+        <v>154625</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.6981275014767342</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.6289225332624084</v>
+        <v>0.631935127516524</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.7626755146642831</v>
+        <v>0.7648668111656657</v>
       </c>
     </row>
     <row r="27">
@@ -6844,19 +6844,19 @@
         <v>33749</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>23429</v>
+        <v>23769</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>46987</v>
+        <v>48339</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.04686096410856436</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.0325313275941923</v>
+        <v>0.03300329333580739</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.06524329589244311</v>
+        <v>0.06711985032729496</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>104</v>
@@ -6865,19 +6865,19 @@
         <v>107629</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>89030</v>
+        <v>89860</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>128803</v>
+        <v>128852</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1010293135554415</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.08357091647287579</v>
+        <v>0.08435007492501412</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1209047209811892</v>
+        <v>0.1209509316166892</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>136</v>
@@ -6886,19 +6886,19 @@
         <v>141378</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>120779</v>
+        <v>120717</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>169073</v>
+        <v>167376</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.07918047584304819</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.06764377141846534</v>
+        <v>0.06760918809906938</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.09469144152937858</v>
+        <v>0.09374110329614706</v>
       </c>
     </row>
     <row r="29">
@@ -6915,19 +6915,19 @@
         <v>133480</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>114198</v>
+        <v>111960</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>156276</v>
+        <v>156248</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1853402567850439</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.158567398184588</v>
+        <v>0.1554593269223891</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2169927068356452</v>
+        <v>0.2169543419706442</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>249</v>
@@ -6936,19 +6936,19 @@
         <v>253708</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>225746</v>
+        <v>226883</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>282392</v>
+        <v>283869</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.2381507343029247</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.211903683074687</v>
+        <v>0.212970813835667</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2650760066172438</v>
+        <v>0.2664620791447732</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>375</v>
@@ -6957,19 +6957,19 @@
         <v>387188</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>354503</v>
+        <v>351140</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>423800</v>
+        <v>422534</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2168495950844637</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1985442066857057</v>
+        <v>0.1966606372149057</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2373548733292296</v>
+        <v>0.2366456053927194</v>
       </c>
     </row>
     <row r="30">
@@ -6986,19 +6986,19 @@
         <v>552959</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>528235</v>
+        <v>527336</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>576397</v>
+        <v>576780</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.7677987791063917</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.7334676867130683</v>
+        <v>0.7322205454035777</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.800342092571299</v>
+        <v>0.8008741536052344</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>683</v>
@@ -7007,19 +7007,19 @@
         <v>703988</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>672125</v>
+        <v>668137</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>737494</v>
+        <v>733943</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.6608199521416338</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.6309111279599743</v>
+        <v>0.6271668583999779</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.6922715281818252</v>
+        <v>0.6889381286420823</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>1207</v>
@@ -7028,19 +7028,19 @@
         <v>1256947</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>1218075</v>
+        <v>1219037</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>1295135</v>
+        <v>1296450</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.7039699290724881</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.6821989947011</v>
+        <v>0.6827375161312764</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.7253573172339797</v>
+        <v>0.7260940064161139</v>
       </c>
     </row>
     <row r="31">
@@ -7374,19 +7374,19 @@
         <v>3148</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>897</v>
+        <v>879</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>7965</v>
+        <v>8579</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.09663436926256307</v>
+        <v>0.09663436926256309</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02753509350711277</v>
+        <v>0.02699246854506867</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2444921856691007</v>
+        <v>0.263330342550226</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1</v>
@@ -7398,16 +7398,16 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>6049</v>
+        <v>7431</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.03673759313251763</v>
+        <v>0.03673759313251762</v>
       </c>
       <c r="O4" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1414854344489086</v>
+        <v>0.173804595935401</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>4</v>
@@ -7416,19 +7416,19 @@
         <v>4719</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1157</v>
+        <v>1186</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>11048</v>
+        <v>10739</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.06264112129683698</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0153540449524073</v>
+        <v>0.01574616346187778</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1466561264340793</v>
+        <v>0.1425571526755942</v>
       </c>
     </row>
     <row r="5">
@@ -7445,19 +7445,19 @@
         <v>2534</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>777</v>
+        <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>7322</v>
+        <v>6416</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.07776624524290364</v>
+        <v>0.07776624524290367</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.02384556880544824</v>
+        <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2247497246706606</v>
+        <v>0.1969403896220352</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>12</v>
@@ -7466,19 +7466,19 @@
         <v>10081</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>5623</v>
+        <v>5438</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>16156</v>
+        <v>15627</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2358021401534503</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1315255776325925</v>
+        <v>0.1271843623868373</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3778888016555706</v>
+        <v>0.3655060809191151</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>15</v>
@@ -7487,19 +7487,19 @@
         <v>12615</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>7217</v>
+        <v>7480</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>19861</v>
+        <v>19844</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1674564374414928</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.09579865907058792</v>
+        <v>0.09929599066837387</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.263642996888084</v>
+        <v>0.2634130590583689</v>
       </c>
     </row>
     <row r="6">
@@ -7516,19 +7516,19 @@
         <v>26897</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>21904</v>
+        <v>20798</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>30433</v>
+        <v>30227</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.8255993854945332</v>
+        <v>0.8255993854945333</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.6723415098935838</v>
+        <v>0.6383792300987354</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.934128950396655</v>
+        <v>0.9278055005609799</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>40</v>
@@ -7537,19 +7537,19 @@
         <v>31102</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>24399</v>
+        <v>24804</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>35524</v>
+        <v>35934</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.7274602667140323</v>
+        <v>0.7274602667140321</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.5706724478652004</v>
+        <v>0.5801611131258855</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.8308854669283225</v>
+        <v>0.8404790510509104</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>62</v>
@@ -7558,19 +7558,19 @@
         <v>57999</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>49910</v>
+        <v>49902</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>63676</v>
+        <v>64217</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.7699024412616703</v>
+        <v>0.7699024412616702</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.6625185844298693</v>
+        <v>0.6624144259245314</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.8452545323164404</v>
+        <v>0.8524429338167768</v>
       </c>
     </row>
     <row r="7">
@@ -7675,19 +7675,19 @@
         <v>3689</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>757</v>
+        <v>749</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>9816</v>
+        <v>9760</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1076976270134466</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.02210548332635943</v>
+        <v>0.02186182895622356</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2865678995401144</v>
+        <v>0.2849479035294448</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3</v>
@@ -7696,19 +7696,19 @@
         <v>3689</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>739</v>
+        <v>725</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>10570</v>
+        <v>10431</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.06598561120461999</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.0132235390858603</v>
+        <v>0.0129689177572357</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1890637054004013</v>
+        <v>0.1865909073317169</v>
       </c>
     </row>
     <row r="9">
@@ -7728,7 +7728,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>5728</v>
+        <v>6107</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.0797757519683259</v>
@@ -7737,7 +7737,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.264539938934799</v>
+        <v>0.282060733347662</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>9</v>
@@ -7746,19 +7746,19 @@
         <v>7451</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>3803</v>
+        <v>3534</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>13221</v>
+        <v>12858</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.2175254348016398</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1110368303183505</v>
+        <v>0.1031730340641535</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.3859681257600395</v>
+        <v>0.3753954277456919</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>11</v>
@@ -7767,19 +7767,19 @@
         <v>9178</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>4769</v>
+        <v>5050</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>15028</v>
+        <v>15130</v>
       </c>
       <c r="U9" s="6" t="n">
-        <v>0.164174055506285</v>
+        <v>0.1641740555062849</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.08530327221864133</v>
+        <v>0.09032938645229253</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2688183651743123</v>
+        <v>0.2706352589244948</v>
       </c>
     </row>
     <row r="10">
@@ -7796,7 +7796,7 @@
         <v>19925</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>15924</v>
+        <v>15545</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>21652</v>
@@ -7805,7 +7805,7 @@
         <v>0.9202242480316742</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.7354600610652008</v>
+        <v>0.7179392666523429</v>
       </c>
       <c r="I10" s="6" t="n">
         <v>1</v>
@@ -7817,19 +7817,19 @@
         <v>23113</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>16762</v>
+        <v>17013</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>27646</v>
+        <v>27883</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.6747769381849135</v>
+        <v>0.6747769381849137</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.4893488827152445</v>
+        <v>0.4966719883567625</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.8071059363577902</v>
+        <v>0.8140247952517844</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>49</v>
@@ -7838,19 +7838,19 @@
         <v>43038</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>36347</v>
+        <v>36616</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>48373</v>
+        <v>48427</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.7698403332890951</v>
+        <v>0.769840333289095</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.6501536480751716</v>
+        <v>0.6549710789248792</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.865275112920728</v>
+        <v>0.8662348508925868</v>
       </c>
     </row>
     <row r="11">
@@ -7945,7 +7945,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>9577</v>
+        <v>9174</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.09301760645393339</v>
@@ -7954,7 +7954,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3086290413473413</v>
+        <v>0.295645926519475</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>1</v>
@@ -7966,16 +7966,16 @@
         <v>0</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>3618</v>
+        <v>4129</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.07531046754311495</v>
+        <v>0.07531046754311493</v>
       </c>
       <c r="O12" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3711161443792319</v>
+        <v>0.4235406887195426</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>3</v>
@@ -7984,19 +7984,19 @@
         <v>3621</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>782</v>
+        <v>717</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>10204</v>
+        <v>9691</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.08878458706584422</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.0191798473687336</v>
+        <v>0.01757282756016287</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.250237181417169</v>
+        <v>0.2376421186987024</v>
       </c>
     </row>
     <row r="13">
@@ -8016,7 +8016,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>5310</v>
+        <v>5196</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.05122741009416196</v>
@@ -8025,7 +8025,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1711151142124462</v>
+        <v>0.1674336667418008</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>4</v>
@@ -8034,19 +8034,19 @@
         <v>3303</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>889</v>
+        <v>1015</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>6323</v>
+        <v>6155</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.3387591858994284</v>
+        <v>0.3387591858994283</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.0912368976669226</v>
+        <v>0.1041302893967928</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.6485312241136658</v>
+        <v>0.6313369742900915</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>6</v>
@@ -8055,19 +8055,19 @@
         <v>4892</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1866</v>
+        <v>1720</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>9707</v>
+        <v>9482</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1199639568511189</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04576782417905159</v>
+        <v>0.04218352827944942</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2380292197887102</v>
+        <v>0.2325143239597766</v>
       </c>
     </row>
     <row r="14">
@@ -8084,19 +8084,19 @@
         <v>26555</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>20704</v>
+        <v>20579</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>29927</v>
+        <v>29415</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.8557549834519046</v>
+        <v>0.8557549834519047</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.667190988385911</v>
+        <v>0.6631773830486339</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9644310907565493</v>
+        <v>0.947910055861364</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>8</v>
@@ -8105,19 +8105,19 @@
         <v>5712</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2560</v>
+        <v>2841</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>8066</v>
+        <v>8208</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.5859303465574567</v>
+        <v>0.5859303465574566</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2625883649439809</v>
+        <v>0.2914155418453134</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8273774486963067</v>
+        <v>0.8419371636044414</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>31</v>
@@ -8126,19 +8126,19 @@
         <v>32266</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>25618</v>
+        <v>26206</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>36450</v>
+        <v>36522</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7912514560830369</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6282199426038175</v>
+        <v>0.6426242920034206</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8938426220034903</v>
+        <v>0.8955962891255421</v>
       </c>
     </row>
     <row r="15">
@@ -8233,16 +8233,16 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>7833</v>
+        <v>8345</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.03470309635769959</v>
+        <v>0.03470309635769958</v>
       </c>
       <c r="H16" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1087849670004655</v>
+        <v>0.1159017882810878</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>5</v>
@@ -8251,19 +8251,19 @@
         <v>3977</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1427</v>
+        <v>1379</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>8587</v>
+        <v>8111</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.0523736758650489</v>
+        <v>0.05237367586504891</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01878782212476092</v>
+        <v>0.01815793078058776</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1130968090988491</v>
+        <v>0.1068212971980723</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>7</v>
@@ -8272,19 +8272,19 @@
         <v>6475</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>2967</v>
+        <v>2515</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>13803</v>
+        <v>12817</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.04377293560278531</v>
+        <v>0.04377293560278532</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02005874861437956</v>
+        <v>0.01699888710910085</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.09330839175521463</v>
+        <v>0.0866404597170833</v>
       </c>
     </row>
     <row r="17">
@@ -8301,19 +8301,19 @@
         <v>10094</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>4928</v>
+        <v>4599</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>18619</v>
+        <v>18268</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.140193401468703</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.06844685426864584</v>
+        <v>0.06386943644266367</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2586008966884009</v>
+        <v>0.2537197192365732</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>23</v>
@@ -8322,19 +8322,19 @@
         <v>21979</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>15424</v>
+        <v>15657</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>30815</v>
+        <v>30846</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.2894819493726754</v>
+        <v>0.2894819493726755</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2031411256280048</v>
+        <v>0.2062162222989879</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.4058440507809582</v>
+        <v>0.4062603980567605</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>31</v>
@@ -8343,19 +8343,19 @@
         <v>32074</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>22108</v>
+        <v>23159</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>42642</v>
+        <v>43487</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2168192489717893</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1494510860676974</v>
+        <v>0.1565525475699649</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2882647678800317</v>
+        <v>0.2939740357744508</v>
       </c>
     </row>
     <row r="18">
@@ -8372,19 +8372,19 @@
         <v>59407</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>49909</v>
+        <v>50341</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>65296</v>
+        <v>66058</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.8251035021735974</v>
+        <v>0.8251035021735972</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.6931787768008966</v>
+        <v>0.6991822963971078</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.906887925581537</v>
+        <v>0.9174684097467326</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>59</v>
@@ -8393,19 +8393,19 @@
         <v>49971</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>41433</v>
+        <v>40870</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>56991</v>
+        <v>56698</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>0.6581443747622754</v>
+        <v>0.6581443747622755</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.5456957044338958</v>
+        <v>0.5382762891901144</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.7505978995771074</v>
+        <v>0.7467495314414272</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>110</v>
@@ -8414,19 +8414,19 @@
         <v>109379</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>97410</v>
+        <v>97664</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>120051</v>
+        <v>118935</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.7394078154254253</v>
+        <v>0.7394078154254254</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.6584948983858355</v>
+        <v>0.6602097833861234</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.811548085607535</v>
+        <v>0.8040057111296943</v>
       </c>
     </row>
     <row r="19">
@@ -8534,7 +8534,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>6496</v>
+        <v>5879</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.01355805234562782</v>
@@ -8543,7 +8543,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.07469582069449592</v>
+        <v>0.06760498163328316</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1</v>
@@ -8555,7 +8555,7 @@
         <v>0</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>7230</v>
+        <v>6524</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.01058071396182004</v>
@@ -8564,7 +8564,7 @@
         <v>0</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.06487762313586944</v>
+        <v>0.05854127415639538</v>
       </c>
     </row>
     <row r="21">
@@ -8584,7 +8584,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>8083</v>
+        <v>8389</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1105687626169154</v>
@@ -8593,7 +8593,7 @@
         <v>0</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3302896051384624</v>
+        <v>0.3428030800805432</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>20</v>
@@ -8602,19 +8602,19 @@
         <v>18701</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>11999</v>
+        <v>11862</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>27599</v>
+        <v>25858</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2150329390758897</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1379711243292281</v>
+        <v>0.1363978926269221</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.3173544307271878</v>
+        <v>0.2973273709516498</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>22</v>
@@ -8623,19 +8623,19 @@
         <v>21407</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>13858</v>
+        <v>13749</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>29686</v>
+        <v>30688</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1920926822915536</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1243583663845523</v>
+        <v>0.1233781631623083</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.266391811377566</v>
+        <v>0.2753759898974419</v>
       </c>
     </row>
     <row r="22">
@@ -8652,7 +8652,7 @@
         <v>21766</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>16389</v>
+        <v>16083</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>24472</v>
@@ -8661,7 +8661,7 @@
         <v>0.8894312373830845</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.6697103948615375</v>
+        <v>0.6571969199194566</v>
       </c>
       <c r="I22" s="6" t="n">
         <v>1</v>
@@ -8673,19 +8673,19 @@
         <v>67087</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>57595</v>
+        <v>59897</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>73649</v>
+        <v>74690</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.7714090085784824</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.6622611993614885</v>
+        <v>0.6887328803255286</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.846861852464745</v>
+        <v>0.8588309253762767</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>100</v>
@@ -8694,19 +8694,19 @@
         <v>88853</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>79400</v>
+        <v>79131</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>96386</v>
+        <v>96537</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.7973266037466262</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.7124987507540884</v>
+        <v>0.7100820709374124</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.8649239609023531</v>
+        <v>0.8662808582433941</v>
       </c>
     </row>
     <row r="23">
@@ -8811,19 +8811,19 @@
         <v>3853</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>851</v>
+        <v>906</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>10068</v>
+        <v>9085</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.06156139188451848</v>
+        <v>0.06156139188451847</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.01360067886801593</v>
+        <v>0.01447390087306758</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1608522988824266</v>
+        <v>0.1451405015419055</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>4</v>
@@ -8832,19 +8832,19 @@
         <v>3853</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>1430</v>
+        <v>877</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>10703</v>
+        <v>10078</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.05339725073810629</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.01981135470167072</v>
+        <v>0.01214662790663323</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1483195512637194</v>
+        <v>0.1396524854225352</v>
       </c>
     </row>
     <row r="25">
@@ -8864,16 +8864,16 @@
         <v>0</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>4383</v>
+        <v>6237</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.08482958675857319</v>
+        <v>0.0848295867585732</v>
       </c>
       <c r="H25" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.4579579111964477</v>
+        <v>0.6516791020798385</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>6</v>
@@ -8882,19 +8882,19 @@
         <v>5973</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>2568</v>
+        <v>2618</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>12092</v>
+        <v>12003</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.09542315380787175</v>
+        <v>0.09542315380787174</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.04103066572546265</v>
+        <v>0.04182575726841131</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1931824323792048</v>
+        <v>0.1917639426008317</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>7</v>
@@ -8903,19 +8903,19 @@
         <v>6785</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>2825</v>
+        <v>3159</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>12585</v>
+        <v>12939</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.09401825742741474</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.03914773056745354</v>
+        <v>0.04377910876175212</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1743958988640207</v>
+        <v>0.1793026993306905</v>
       </c>
     </row>
     <row r="26">
@@ -8932,7 +8932,7 @@
         <v>8758</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>5187</v>
+        <v>3344</v>
       </c>
       <c r="F26" s="5" t="n">
         <v>9570</v>
@@ -8941,7 +8941,7 @@
         <v>0.9151704132414269</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.542042088803549</v>
+        <v>0.3494671118536046</v>
       </c>
       <c r="I26" s="6" t="n">
         <v>1</v>
@@ -8953,19 +8953,19 @@
         <v>52768</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>45539</v>
+        <v>45304</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>57533</v>
+        <v>57219</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.8430154543076098</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.7275307949877436</v>
+        <v>0.7237809717545485</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9191511899937209</v>
+        <v>0.9141249316253266</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>61</v>
@@ -8974,19 +8974,19 @@
         <v>61526</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>54288</v>
+        <v>53302</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>66476</v>
+        <v>66232</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.8525844918344789</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.7522830101058922</v>
+        <v>0.7386230654346497</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9211775972231787</v>
+        <v>0.9177983638367212</v>
       </c>
     </row>
     <row r="27">
@@ -9078,19 +9078,19 @@
         <v>8533</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>3580</v>
+        <v>4000</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>17627</v>
+        <v>17137</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>0.04460578981819201</v>
+        <v>0.044605789818192</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.01871460241595439</v>
+        <v>0.02091139149367529</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.09214267707970461</v>
+        <v>0.08957766067082516</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>15</v>
@@ -9099,19 +9099,19 @@
         <v>15003</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>9161</v>
+        <v>7941</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>25645</v>
+        <v>24120</v>
       </c>
       <c r="N28" s="6" t="n">
-        <v>0.04804856036012166</v>
+        <v>0.04804856036012164</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.02933811963898004</v>
+        <v>0.02543084388143761</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.08213263798035</v>
+        <v>0.07724845238422284</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>22</v>
@@ -9120,19 +9120,19 @@
         <v>23536</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>14574</v>
+        <v>14950</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>35244</v>
+        <v>34877</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.04674060506965234</v>
+        <v>0.04674060506965233</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.02894235223260321</v>
+        <v>0.02968997959328603</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.06999170020287701</v>
+        <v>0.06926166648208117</v>
       </c>
     </row>
     <row r="29">
@@ -9149,19 +9149,19 @@
         <v>19462</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>11944</v>
+        <v>11540</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>29103</v>
+        <v>29076</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1017338341682652</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.06243433049271882</v>
+        <v>0.06032172598443276</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1521310916563614</v>
+        <v>0.1519882909896797</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>74</v>
@@ -9170,19 +9170,19 @@
         <v>67488</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>54944</v>
+        <v>53707</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>82039</v>
+        <v>83024</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.216138991062897</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1759653645209771</v>
+        <v>0.1720045599182875</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2627398557851293</v>
+        <v>0.2658942947265606</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>92</v>
@@ -9191,19 +9191,19 @@
         <v>86950</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>71873</v>
+        <v>69969</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>106449</v>
+        <v>104513</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1726749180452872</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1427329487136295</v>
+        <v>0.1389529614495134</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2113980049722691</v>
+        <v>0.2075541214137589</v>
       </c>
     </row>
     <row r="30">
@@ -9220,19 +9220,19 @@
         <v>163309</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>150542</v>
+        <v>152298</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>171526</v>
+        <v>172976</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.8536603760135427</v>
+        <v>0.8536603760135428</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.7869188131549487</v>
+        <v>0.796101852770335</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.8966110491828649</v>
+        <v>0.9041873904712188</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>275</v>
@@ -9241,19 +9241,19 @@
         <v>229753</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>215114</v>
+        <v>212948</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>244875</v>
+        <v>245570</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>0.7358124485769814</v>
+        <v>0.7358124485769811</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.6889293405904406</v>
+        <v>0.6819929952977829</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.7842437242904866</v>
+        <v>0.7864677443816041</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>413</v>
@@ -9262,19 +9262,19 @@
         <v>393062</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>373199</v>
+        <v>374025</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>411101</v>
+        <v>412267</v>
       </c>
       <c r="U30" s="6" t="n">
-        <v>0.7805844768850604</v>
+        <v>0.7805844768850605</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.7411386418505496</v>
+        <v>0.742778674017349</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.8164088241043012</v>
+        <v>0.818724331614798</v>
       </c>
     </row>
     <row r="31">
